--- a/public/data/soil/soil_table_burkina_faso.xlsx
+++ b/public/data/soil/soil_table_burkina_faso.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>252859.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>259757.6</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>16901.3</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>253970</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>328566.9</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>121492.2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>143604.4</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>201495.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>116321</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2736.9</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>219188.1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>155040.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>142442.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>112581.3</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>158530.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>309399.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>211180.9</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>216285.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>206529.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>147749.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>150639.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>88326.6</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>134100.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>131192.7</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>218609.4</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>184048.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>85016</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>68965.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>206354</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>390962.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>330578</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>293582.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>75127.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>139494.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>258403.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>74252.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>210760</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>58010.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>157621.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>81504.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>75702.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>170273.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>113479.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>119195</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>252980.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>47405</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>131252.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
